--- a/biology/Médecine/Hôpital_général/Hôpital_général.xlsx
+++ b/biology/Médecine/Hôpital_général/Hôpital_général.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral</t>
+          <t>Hôpital_général</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital général est un établissement de soins ou, en France, un lieu d'enfermement pour les pauvres sous l'Ancien Régime.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral</t>
+          <t>Hôpital_général</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>En France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'hôpital général est un système constitué d'un ensemble d'établissements en France fondé au XVIIe siècle afin d'enfermer les indigents et ainsi résoudre le problème de la mendicité.
 Hôpital général de Caen
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral</t>
+          <t>Hôpital_général</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Au Québec</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ancien hôpital général de Montréal
 Hôpital général de Montréal
@@ -567,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_g%C3%A9n%C3%A9ral</t>
+          <t>Hôpital_général</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,7 +601,9 @@
           <t>Ailleurs dans le monde</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Hôpital général de Kinshasa
 Hôpital général de Kingston
